--- a/WebTech_Framework/TestData/TestURLs.xlsx
+++ b/WebTech_Framework/TestData/TestURLs.xlsx
@@ -16,12 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">                                                                    URL</t>
   </si>
   <si>
     <t>https://www-stage.oracle.com/storage/nas/storage-appliance-encryption/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/enterprise-library-software/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/nas/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/all-flash-fs-and-fs1/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/nas/zfs-appliance-software/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/nas/zs5-2/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/nas/zs-backup/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/acsls/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/hierarchical-storage-manager/features/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/hierarchical-storage-manager/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/hierarchical-storage-manager/resources/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/key-manager-3/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/ltfs/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/lto-data-cartridge/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/lto-tape-drives/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/sl150-modular-tape-library/index.html</t>
+  </si>
+  <si>
+    <t>https://www-stage.oracle.com/storage/tape-storage/sl3000-modular-library-system/index.html</t>
   </si>
 </sst>
 </file>
@@ -378,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,9 +453,123 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
